--- a/Egfr-Hh-Wg-ss-cartesian system.xlsx
+++ b/Egfr-Hh-Wg-ss-cartesian system.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1794E260-7E6C-294D-9853-B3552A3694E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D5FA8-7AEF-5D48-B4AF-DAC5495BE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5760" yWindow="-23540" windowWidth="35900" windowHeight="21700" activeTab="6" xr2:uid="{3CDF4533-831A-464F-88E6-55DB884FA505}"/>
+    <workbookView xWindow="-720" yWindow="-21700" windowWidth="24100" windowHeight="21860" activeTab="7" xr2:uid="{3CDF4533-831A-464F-88E6-55DB884FA505}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="ReducedModel" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="ReducedModel-21June" sheetId="6" r:id="rId6"/>
+    <sheet name="21JuneModel-Colored" sheetId="7" r:id="rId7"/>
+    <sheet name="Ci_act KO " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="35">
   <si>
     <t>*</t>
   </si>
@@ -158,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -750,6 +757,16 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -758,6 +775,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -768,36 +788,640 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="223">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1749,13 +2373,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5802,18 +6419,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Z24">
-    <cfRule type="cellIs" dxfId="134" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Z24">
-    <cfRule type="cellIs" dxfId="131" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7781,57 +8398,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63"/>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63"/>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63"/>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64"/>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64"/>
-      <c r="CA1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64"/>
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="60"/>
+      <c r="BW1" s="60"/>
+      <c r="BX1" s="60"/>
+      <c r="BY1" s="60"/>
+      <c r="BZ1" s="60"/>
+      <c r="CA1" s="60"/>
     </row>
     <row r="2" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -7909,7 +8526,7 @@
       <c r="Z2" s="12">
         <v>1</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AA2" s="61" t="s">
         <v>28</v>
       </c>
       <c r="AB2" s="50" t="s">
@@ -7987,7 +8604,7 @@
       <c r="AZ2" s="42">
         <v>1</v>
       </c>
-      <c r="BB2" s="57" t="s">
+      <c r="BB2" s="61" t="s">
         <v>28</v>
       </c>
       <c r="BC2" s="50" t="s">
@@ -8067,7 +8684,7 @@
       </c>
     </row>
     <row r="3" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -8143,7 +8760,7 @@
       <c r="Z3" s="15">
         <v>0</v>
       </c>
-      <c r="AA3" s="58"/>
+      <c r="AA3" s="62"/>
       <c r="AB3" s="50" t="s">
         <v>3</v>
       </c>
@@ -8219,7 +8836,7 @@
       <c r="AZ3" s="44">
         <v>0</v>
       </c>
-      <c r="BB3" s="58"/>
+      <c r="BB3" s="62"/>
       <c r="BC3" s="50" t="s">
         <v>3</v>
       </c>
@@ -8297,7 +8914,7 @@
       </c>
     </row>
     <row r="4" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8373,7 +8990,7 @@
       <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="AA4" s="58"/>
+      <c r="AA4" s="62"/>
       <c r="AB4" s="50" t="s">
         <v>4</v>
       </c>
@@ -8449,7 +9066,7 @@
       <c r="AZ4" s="44">
         <v>1</v>
       </c>
-      <c r="BB4" s="58"/>
+      <c r="BB4" s="62"/>
       <c r="BC4" s="50" t="s">
         <v>4</v>
       </c>
@@ -8527,7 +9144,7 @@
       </c>
     </row>
     <row r="5" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -8603,7 +9220,7 @@
       <c r="Z5" s="15">
         <v>0</v>
       </c>
-      <c r="AA5" s="58"/>
+      <c r="AA5" s="62"/>
       <c r="AB5" s="50" t="s">
         <v>5</v>
       </c>
@@ -8679,7 +9296,7 @@
       <c r="AZ5" s="44">
         <v>0</v>
       </c>
-      <c r="BB5" s="58"/>
+      <c r="BB5" s="62"/>
       <c r="BC5" s="50" t="s">
         <v>5</v>
       </c>
@@ -8757,7 +9374,7 @@
       </c>
     </row>
     <row r="6" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -8833,7 +9450,7 @@
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="58"/>
+      <c r="AA6" s="62"/>
       <c r="AB6" s="50" t="s">
         <v>6</v>
       </c>
@@ -8909,7 +9526,7 @@
       <c r="AZ6" s="44">
         <v>0</v>
       </c>
-      <c r="BB6" s="58"/>
+      <c r="BB6" s="62"/>
       <c r="BC6" s="50" t="s">
         <v>6</v>
       </c>
@@ -8987,7 +9604,7 @@
       </c>
     </row>
     <row r="7" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9063,7 +9680,7 @@
       <c r="Z7" s="15">
         <v>0</v>
       </c>
-      <c r="AA7" s="59"/>
+      <c r="AA7" s="63"/>
       <c r="AB7" s="50" t="s">
         <v>8</v>
       </c>
@@ -9139,7 +9756,7 @@
       <c r="AZ7" s="49">
         <v>0</v>
       </c>
-      <c r="BB7" s="59"/>
+      <c r="BB7" s="63"/>
       <c r="BC7" s="50" t="s">
         <v>8</v>
       </c>
@@ -9217,7 +9834,7 @@
       </c>
     </row>
     <row r="8" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -9295,7 +9912,7 @@
       <c r="Z8" s="15">
         <v>0</v>
       </c>
-      <c r="AA8" s="57" t="s">
+      <c r="AA8" s="61" t="s">
         <v>29</v>
       </c>
       <c r="AB8" s="50" t="s">
@@ -9373,7 +9990,7 @@
       <c r="AZ8" s="42">
         <v>1</v>
       </c>
-      <c r="BB8" s="57" t="s">
+      <c r="BB8" s="61" t="s">
         <v>29</v>
       </c>
       <c r="BC8" s="50" t="s">
@@ -9453,7 +10070,7 @@
       </c>
     </row>
     <row r="9" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -9529,7 +10146,7 @@
       <c r="Z9" s="15">
         <v>0</v>
       </c>
-      <c r="AA9" s="58"/>
+      <c r="AA9" s="62"/>
       <c r="AB9" s="50" t="s">
         <v>9</v>
       </c>
@@ -9605,7 +10222,7 @@
       <c r="AZ9" s="44">
         <v>1</v>
       </c>
-      <c r="BB9" s="58"/>
+      <c r="BB9" s="62"/>
       <c r="BC9" s="50" t="s">
         <v>9</v>
       </c>
@@ -9683,7 +10300,7 @@
       </c>
     </row>
     <row r="10" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -9759,7 +10376,7 @@
       <c r="Z10" s="15">
         <v>0</v>
       </c>
-      <c r="AA10" s="58"/>
+      <c r="AA10" s="62"/>
       <c r="AB10" s="50" t="s">
         <v>10</v>
       </c>
@@ -9835,7 +10452,7 @@
       <c r="AZ10" s="44">
         <v>1</v>
       </c>
-      <c r="BB10" s="58"/>
+      <c r="BB10" s="62"/>
       <c r="BC10" s="50" t="s">
         <v>10</v>
       </c>
@@ -9913,7 +10530,7 @@
       </c>
     </row>
     <row r="11" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -9989,7 +10606,7 @@
       <c r="Z11" s="15">
         <v>0</v>
       </c>
-      <c r="AA11" s="59"/>
+      <c r="AA11" s="63"/>
       <c r="AB11" s="50" t="s">
         <v>11</v>
       </c>
@@ -10065,7 +10682,7 @@
       <c r="AZ11" s="49">
         <v>1</v>
       </c>
-      <c r="BB11" s="59"/>
+      <c r="BB11" s="63"/>
       <c r="BC11" s="50" t="s">
         <v>11</v>
       </c>
@@ -10143,7 +10760,7 @@
       </c>
     </row>
     <row r="12" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10221,7 +10838,7 @@
       <c r="Z12" s="15">
         <v>1</v>
       </c>
-      <c r="AA12" s="57" t="s">
+      <c r="AA12" s="61" t="s">
         <v>30</v>
       </c>
       <c r="AB12" s="50" t="s">
@@ -10299,7 +10916,7 @@
       <c r="AZ12" s="42">
         <v>1</v>
       </c>
-      <c r="BB12" s="57" t="s">
+      <c r="BB12" s="61" t="s">
         <v>30</v>
       </c>
       <c r="BC12" s="50" t="s">
@@ -10379,7 +10996,7 @@
       </c>
     </row>
     <row r="13" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
@@ -10455,7 +11072,7 @@
       <c r="Z13" s="15">
         <v>1</v>
       </c>
-      <c r="AA13" s="58"/>
+      <c r="AA13" s="62"/>
       <c r="AB13" s="50" t="s">
         <v>15</v>
       </c>
@@ -10531,7 +11148,7 @@
       <c r="AZ13" s="44">
         <v>1</v>
       </c>
-      <c r="BB13" s="58"/>
+      <c r="BB13" s="62"/>
       <c r="BC13" s="50" t="s">
         <v>15</v>
       </c>
@@ -10609,7 +11226,7 @@
       </c>
     </row>
     <row r="14" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -10685,7 +11302,7 @@
       <c r="Z14" s="15">
         <v>0</v>
       </c>
-      <c r="AA14" s="58"/>
+      <c r="AA14" s="62"/>
       <c r="AB14" s="50" t="s">
         <v>16</v>
       </c>
@@ -10761,7 +11378,7 @@
       <c r="AZ14" s="44">
         <v>0</v>
       </c>
-      <c r="BB14" s="58"/>
+      <c r="BB14" s="62"/>
       <c r="BC14" s="50" t="s">
         <v>16</v>
       </c>
@@ -10839,7 +11456,7 @@
       </c>
     </row>
     <row r="15" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -10915,7 +11532,7 @@
       <c r="Z15" s="15">
         <v>0</v>
       </c>
-      <c r="AA15" s="58"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="50" t="s">
         <v>17</v>
       </c>
@@ -10991,7 +11608,7 @@
       <c r="AZ15" s="44">
         <v>0</v>
       </c>
-      <c r="BB15" s="58"/>
+      <c r="BB15" s="62"/>
       <c r="BC15" s="50" t="s">
         <v>17</v>
       </c>
@@ -11069,7 +11686,7 @@
       </c>
     </row>
     <row r="16" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -11145,7 +11762,7 @@
       <c r="Z16" s="15">
         <v>0</v>
       </c>
-      <c r="AA16" s="58"/>
+      <c r="AA16" s="62"/>
       <c r="AB16" s="50" t="s">
         <v>18</v>
       </c>
@@ -11221,7 +11838,7 @@
       <c r="AZ16" s="44">
         <v>0</v>
       </c>
-      <c r="BB16" s="58"/>
+      <c r="BB16" s="62"/>
       <c r="BC16" s="50" t="s">
         <v>18</v>
       </c>
@@ -11299,7 +11916,7 @@
       </c>
     </row>
     <row r="17" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -11375,7 +11992,7 @@
       <c r="Z17" s="15">
         <v>1</v>
       </c>
-      <c r="AA17" s="58"/>
+      <c r="AA17" s="62"/>
       <c r="AB17" s="50" t="s">
         <v>19</v>
       </c>
@@ -11451,7 +12068,7 @@
       <c r="AZ17" s="44">
         <v>1</v>
       </c>
-      <c r="BB17" s="58"/>
+      <c r="BB17" s="62"/>
       <c r="BC17" s="50" t="s">
         <v>19</v>
       </c>
@@ -11529,7 +12146,7 @@
       </c>
     </row>
     <row r="18" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
@@ -11605,7 +12222,7 @@
       <c r="Z18" s="15">
         <v>0</v>
       </c>
-      <c r="AA18" s="59"/>
+      <c r="AA18" s="63"/>
       <c r="AB18" s="50" t="s">
         <v>20</v>
       </c>
@@ -11681,7 +12298,7 @@
       <c r="AZ18" s="49">
         <v>0</v>
       </c>
-      <c r="BB18" s="59"/>
+      <c r="BB18" s="63"/>
       <c r="BC18" s="50" t="s">
         <v>20</v>
       </c>
@@ -11759,7 +12376,7 @@
       </c>
     </row>
     <row r="19" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -11835,7 +12452,7 @@
       <c r="Z19" s="15">
         <v>1</v>
       </c>
-      <c r="AA19" s="57" t="s">
+      <c r="AA19" s="61" t="s">
         <v>32</v>
       </c>
       <c r="AB19" s="50" t="s">
@@ -11913,7 +12530,7 @@
       <c r="AZ19" s="42">
         <v>0</v>
       </c>
-      <c r="BB19" s="60" t="s">
+      <c r="BB19" s="65" t="s">
         <v>32</v>
       </c>
       <c r="BC19" s="23" t="s">
@@ -11993,7 +12610,7 @@
       </c>
     </row>
     <row r="20" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
@@ -12069,7 +12686,7 @@
       <c r="Z20" s="15">
         <v>0</v>
       </c>
-      <c r="AA20" s="58"/>
+      <c r="AA20" s="62"/>
       <c r="AB20" s="50" t="s">
         <v>13</v>
       </c>
@@ -12145,7 +12762,7 @@
       <c r="AZ20" s="44">
         <v>1</v>
       </c>
-      <c r="BB20" s="61"/>
+      <c r="BB20" s="66"/>
       <c r="BC20" s="24" t="s">
         <v>12</v>
       </c>
@@ -12223,7 +12840,7 @@
       </c>
     </row>
     <row r="21" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
@@ -12299,7 +12916,7 @@
       <c r="Z21" s="15">
         <v>0</v>
       </c>
-      <c r="AA21" s="58"/>
+      <c r="AA21" s="62"/>
       <c r="AB21" s="50" t="s">
         <v>12</v>
       </c>
@@ -12375,7 +12992,7 @@
       <c r="AZ21" s="44">
         <v>1</v>
       </c>
-      <c r="BB21" s="61"/>
+      <c r="BB21" s="66"/>
       <c r="BC21" s="24" t="s">
         <v>13</v>
       </c>
@@ -12453,7 +13070,7 @@
       </c>
     </row>
     <row r="22" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
@@ -12529,7 +13146,7 @@
       <c r="Z22" s="15">
         <v>0</v>
       </c>
-      <c r="AA22" s="58"/>
+      <c r="AA22" s="62"/>
       <c r="AB22" s="50" t="s">
         <v>21</v>
       </c>
@@ -12605,7 +13222,7 @@
       <c r="AZ22" s="44">
         <v>0</v>
       </c>
-      <c r="BB22" s="61"/>
+      <c r="BB22" s="66"/>
       <c r="BC22" s="53" t="s">
         <v>21</v>
       </c>
@@ -12683,7 +13300,7 @@
       </c>
     </row>
     <row r="23" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
@@ -12759,7 +13376,7 @@
       <c r="Z23" s="15">
         <v>1</v>
       </c>
-      <c r="AA23" s="58"/>
+      <c r="AA23" s="62"/>
       <c r="AB23" s="50" t="s">
         <v>22</v>
       </c>
@@ -12835,7 +13452,7 @@
       <c r="AZ23" s="44">
         <v>1</v>
       </c>
-      <c r="BB23" s="61"/>
+      <c r="BB23" s="66"/>
       <c r="BC23" s="22" t="s">
         <v>22</v>
       </c>
@@ -12913,7 +13530,7 @@
       </c>
     </row>
     <row r="24" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -12989,7 +13606,7 @@
       <c r="Z24" s="15">
         <v>0</v>
       </c>
-      <c r="AA24" s="59"/>
+      <c r="AA24" s="63"/>
       <c r="AB24" s="50" t="s">
         <v>23</v>
       </c>
@@ -13065,7 +13682,7 @@
       <c r="AZ24" s="49">
         <v>0</v>
       </c>
-      <c r="BB24" s="62"/>
+      <c r="BB24" s="67"/>
       <c r="BC24" s="52" t="s">
         <v>23</v>
       </c>
@@ -13143,7 +13760,7 @@
       </c>
     </row>
     <row r="25" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -13221,7 +13838,7 @@
       <c r="Z25" s="15">
         <v>0</v>
       </c>
-      <c r="AA25" s="57" t="s">
+      <c r="AA25" s="61" t="s">
         <v>31</v>
       </c>
       <c r="AB25" s="50" t="s">
@@ -13299,7 +13916,7 @@
       <c r="AZ25" s="37">
         <v>0</v>
       </c>
-      <c r="BB25" s="60" t="s">
+      <c r="BB25" s="65" t="s">
         <v>31</v>
       </c>
       <c r="BC25" s="51" t="s">
@@ -13379,7 +13996,7 @@
       </c>
     </row>
     <row r="26" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
@@ -13455,7 +14072,7 @@
       <c r="Z26" s="18">
         <v>1</v>
       </c>
-      <c r="AA26" s="59"/>
+      <c r="AA26" s="63"/>
       <c r="AB26" s="50" t="s">
         <v>27</v>
       </c>
@@ -13531,7 +14148,7 @@
       <c r="AZ26" s="49">
         <v>1</v>
       </c>
-      <c r="BB26" s="62"/>
+      <c r="BB26" s="67"/>
       <c r="BC26" s="51" t="s">
         <v>27</v>
       </c>
@@ -13609,40 +14226,32 @@
       </c>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
+      <c r="A27" s="58"/>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="58"/>
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="58"/>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
+      <c r="A30" s="58"/>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
+      <c r="A31" s="58"/>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="58"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
+      <c r="A33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="AA12:AA18"/>
-    <mergeCell ref="AA19:AA24"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AA2:AA7"/>
+    <mergeCell ref="BB12:BB18"/>
+    <mergeCell ref="BB19:BB24"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="BJ1:BO1"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
@@ -13651,121 +14260,129 @@
     <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BB8:BB11"/>
-    <mergeCell ref="BB12:BB18"/>
-    <mergeCell ref="BB19:BB24"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AA12:AA18"/>
+    <mergeCell ref="AA19:AA24"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AA2:AA7"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:Z26">
-    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU2:AZ26">
-    <cfRule type="cellIs" dxfId="128" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AH26">
-    <cfRule type="cellIs" dxfId="126" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AN26">
-    <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AT26">
-    <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AZ26">
-    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV2:CA26">
-    <cfRule type="cellIs" dxfId="118" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BI26">
-    <cfRule type="cellIs" dxfId="116" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ2:BO26">
-    <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BU26">
-    <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:CA26">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD24:CA24">
-    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD23:CA23">
-    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:CA22">
-    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD20:CA21">
-    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19:CA19">
-    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13787,7 +14404,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -13867,7 +14484,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
@@ -13945,7 +14562,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
@@ -14023,7 +14640,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
@@ -14101,7 +14718,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
@@ -14179,7 +14796,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="50" t="s">
         <v>8</v>
       </c>
@@ -14257,7 +14874,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -14337,7 +14954,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
@@ -14415,7 +15032,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
@@ -14493,7 +15110,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
@@ -14571,7 +15188,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="61" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="50" t="s">
@@ -14651,7 +15268,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="50" t="s">
         <v>15</v>
       </c>
@@ -14729,7 +15346,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="50" t="s">
         <v>16</v>
       </c>
@@ -14807,7 +15424,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
@@ -14885,7 +15502,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
@@ -14963,7 +15580,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="50" t="s">
         <v>19</v>
       </c>
@@ -15041,7 +15658,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="50" t="s">
         <v>20</v>
       </c>
@@ -15119,7 +15736,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="61" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -15199,7 +15816,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="50" t="s">
         <v>13</v>
       </c>
@@ -15277,7 +15894,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
@@ -15355,7 +15972,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="50" t="s">
         <v>21</v>
       </c>
@@ -15433,7 +16050,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="50" t="s">
         <v>22</v>
       </c>
@@ -15511,7 +16128,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="50" t="s">
         <v>23</v>
       </c>
@@ -15589,7 +16206,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -15669,7 +16286,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="50" t="s">
         <v>27</v>
       </c>
@@ -15755,42 +16372,42 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:Z25">
-    <cfRule type="cellIs" dxfId="103" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:H25">
-    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N25">
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T25">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z25">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17038,25 +17655,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDE51C6-6082-2E49-902A-90BE321BD0F7}">
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:R76"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="2:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -18278,7 +18895,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -18334,7 +18951,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -18388,7 +19005,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
@@ -18442,7 +19059,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
@@ -18496,7 +19113,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
@@ -18604,7 +19221,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -18660,7 +19277,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
@@ -18714,7 +19331,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
@@ -18822,7 +19439,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -18878,7 +19495,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
@@ -18932,7 +19549,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
@@ -18986,7 +19603,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
@@ -19040,7 +19657,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
@@ -19094,7 +19711,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="68" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -19150,7 +19767,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -19204,7 +19821,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -19258,7 +19875,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="68" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -19314,7 +19931,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="2" t="s">
         <v>22</v>
       </c>
@@ -19368,7 +19985,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -19422,7 +20039,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -19533,7 +20150,7 @@
     </row>
     <row r="51" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="69" t="s">
         <v>28</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -19589,7 +20206,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="69"/>
+      <c r="A55" s="71"/>
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
@@ -19643,7 +20260,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="69"/>
+      <c r="A56" s="71"/>
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
@@ -19697,7 +20314,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="69"/>
+      <c r="A57" s="71"/>
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
@@ -19751,7 +20368,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
+      <c r="A58" s="71"/>
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
@@ -19859,7 +20476,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="68" t="s">
+      <c r="A60" s="69" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -19915,7 +20532,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="69"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
@@ -19969,7 +20586,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="69"/>
+      <c r="A62" s="71"/>
       <c r="B62" s="2" t="s">
         <v>10</v>
       </c>
@@ -20077,7 +20694,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="A64" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -20133,7 +20750,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="71"/>
+      <c r="A65" s="68"/>
       <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
@@ -20187,7 +20804,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="71"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
@@ -20241,7 +20858,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="71"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -20295,7 +20912,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="71"/>
+      <c r="A68" s="68"/>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
@@ -20349,7 +20966,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="68" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -20405,7 +21022,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="71"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
@@ -20459,7 +21076,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="71"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
@@ -20513,7 +21130,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="68" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -20569,7 +21186,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="71"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
@@ -20623,7 +21240,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="71"/>
+      <c r="A74" s="68"/>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
@@ -20677,7 +21294,7 @@
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="69" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -20788,204 +21405,2949 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
     <mergeCell ref="A64:A68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A54:A59"/>
     <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A50"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:R24">
-    <cfRule type="cellIs" dxfId="93" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C50">
-    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K50">
-    <cfRule type="cellIs" dxfId="89" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F50">
-    <cfRule type="cellIs" dxfId="87" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P50">
-    <cfRule type="cellIs" dxfId="85" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D50">
-    <cfRule type="cellIs" dxfId="83" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M50">
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E50">
-    <cfRule type="cellIs" dxfId="79" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D50">
-    <cfRule type="cellIs" dxfId="77" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E50">
-    <cfRule type="cellIs" dxfId="75" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C50">
-    <cfRule type="cellIs" dxfId="73" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F50">
-    <cfRule type="cellIs" dxfId="71" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G50">
-    <cfRule type="cellIs" dxfId="69" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J50">
-    <cfRule type="cellIs" dxfId="67" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H50">
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I50">
-    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P50">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O50">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q50">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q50">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R50">
-    <cfRule type="cellIs" dxfId="53" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R50">
-    <cfRule type="cellIs" dxfId="51" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:L50">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N50">
+    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C76">
+    <cfRule type="cellIs" dxfId="133" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="46" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:F76">
+    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:D76">
+    <cfRule type="cellIs" dxfId="129" priority="41" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E76">
+    <cfRule type="cellIs" dxfId="127" priority="39" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:D76">
+    <cfRule type="cellIs" dxfId="125" priority="37" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="38" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E76">
+    <cfRule type="cellIs" dxfId="123" priority="35" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C76">
+    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54:F76">
+    <cfRule type="cellIs" dxfId="119" priority="31" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G76">
+    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I76">
+    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H76">
+    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:J76">
+    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:K76">
+    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54:N76">
+    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:L76">
+    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:M76">
+    <cfRule type="cellIs" dxfId="103" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:P76">
+    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:P76">
+    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54:O76">
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54:Q76">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54:Q76">
+    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R54:R76">
+    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R54:R76">
+    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABD9E3-9DC9-B54D-ADB2-2D19ED5D7DBD}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="71"/>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="71"/>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="71"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="71"/>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="72">
+        <v>0</v>
+      </c>
+      <c r="L24" s="72">
+        <v>0</v>
+      </c>
+      <c r="M24" s="72">
+        <v>0</v>
+      </c>
+      <c r="N24" s="72">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="71"/>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="71"/>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="70"/>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="68"/>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="68"/>
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="68"/>
+      <c r="B34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="68"/>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="68"/>
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="68"/>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A42"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D20:D42">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D42">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C42">
+    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E42">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F42">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F42">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G42">
     <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -20993,7 +24355,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C76">
+  <conditionalFormatting sqref="H20:H42">
     <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21001,7 +24363,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F76">
+  <conditionalFormatting sqref="H20:H42">
     <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21009,7 +24371,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D76">
+  <conditionalFormatting sqref="I20:I42">
     <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21017,7 +24379,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E76">
+  <conditionalFormatting sqref="J20:J42">
     <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21025,7 +24387,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D76">
+  <conditionalFormatting sqref="J20:J42">
     <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21033,7 +24395,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E76">
+  <conditionalFormatting sqref="X20:X42">
     <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21041,7 +24403,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C76">
+  <conditionalFormatting sqref="X20:X42">
     <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21049,7 +24411,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F76">
+  <conditionalFormatting sqref="Y20:Y42">
     <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21057,7 +24419,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G76">
+  <conditionalFormatting sqref="K20:K42">
     <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21065,23 +24427,23 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I76">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+  <conditionalFormatting sqref="L20:L42">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H76">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+  <conditionalFormatting sqref="L20:L42">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J76">
+  <conditionalFormatting sqref="M20:M42">
     <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21089,7 +24451,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:K76">
+  <conditionalFormatting sqref="N20:N42">
     <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -21097,79 +24459,79 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N76">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+  <conditionalFormatting sqref="N20:N42">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L54:L76">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+  <conditionalFormatting sqref="V20:V42">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M54:M76">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+  <conditionalFormatting sqref="V20:V42">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54:P76">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+  <conditionalFormatting sqref="W20:W42">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P54:P76">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+  <conditionalFormatting sqref="O20:O42">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O54:O76">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="P20:P42">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54:Q76">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="P20:P42">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q54:Q76">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+  <conditionalFormatting sqref="Q20:Q42">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R54:R76">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+  <conditionalFormatting sqref="R20:R42">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R54:R76">
+  <conditionalFormatting sqref="R20:R42">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Egfr-Hh-Wg-ss-cartesian system.xlsx
+++ b/Egfr-Hh-Wg-ss-cartesian system.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D5FA8-7AEF-5D48-B4AF-DAC5495BE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F050D197-0E5C-2E45-8855-AF278A367F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="-21700" windowWidth="24100" windowHeight="21860" activeTab="7" xr2:uid="{3CDF4533-831A-464F-88E6-55DB884FA505}"/>
+    <workbookView xWindow="3480" yWindow="580" windowWidth="35500" windowHeight="18700" activeTab="8" xr2:uid="{3CDF4533-831A-464F-88E6-55DB884FA505}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ReducedModel-21June" sheetId="6" r:id="rId6"/>
     <sheet name="21JuneModel-Colored" sheetId="7" r:id="rId7"/>
     <sheet name="Ci_act KO " sheetId="8" r:id="rId8"/>
+    <sheet name="Arm-fz-pan ectopic" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="36">
   <si>
     <t>*</t>
   </si>
@@ -137,6 +138,9 @@
   </si>
   <si>
     <t>Columnar Genes</t>
+  </si>
+  <si>
+    <t>Wg,Fz,Arm,Pan</t>
   </si>
 </sst>
 </file>
@@ -758,15 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -775,9 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -788,8 +781,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -800,166 +802,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="223">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="201">
     <dxf>
       <fill>
         <patternFill>
@@ -6419,18 +6269,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Z24">
-    <cfRule type="cellIs" dxfId="222" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:Z24">
-    <cfRule type="cellIs" dxfId="219" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8398,57 +8248,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64"/>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="60"/>
-      <c r="BW1" s="60"/>
-      <c r="BX1" s="60"/>
-      <c r="BY1" s="60"/>
-      <c r="BZ1" s="60"/>
-      <c r="CA1" s="60"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="65"/>
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="65"/>
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="65"/>
+      <c r="BP1" s="65"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="66"/>
+      <c r="BW1" s="66"/>
+      <c r="BX1" s="66"/>
+      <c r="BY1" s="66"/>
+      <c r="BZ1" s="66"/>
+      <c r="CA1" s="66"/>
     </row>
     <row r="2" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="68" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -8526,7 +8376,7 @@
       <c r="Z2" s="12">
         <v>1</v>
       </c>
-      <c r="AA2" s="61" t="s">
+      <c r="AA2" s="59" t="s">
         <v>28</v>
       </c>
       <c r="AB2" s="50" t="s">
@@ -8604,7 +8454,7 @@
       <c r="AZ2" s="42">
         <v>1</v>
       </c>
-      <c r="BB2" s="61" t="s">
+      <c r="BB2" s="59" t="s">
         <v>28</v>
       </c>
       <c r="BC2" s="50" t="s">
@@ -8684,7 +8534,7 @@
       </c>
     </row>
     <row r="3" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -8760,7 +8610,7 @@
       <c r="Z3" s="15">
         <v>0</v>
       </c>
-      <c r="AA3" s="62"/>
+      <c r="AA3" s="60"/>
       <c r="AB3" s="50" t="s">
         <v>3</v>
       </c>
@@ -8836,7 +8686,7 @@
       <c r="AZ3" s="44">
         <v>0</v>
       </c>
-      <c r="BB3" s="62"/>
+      <c r="BB3" s="60"/>
       <c r="BC3" s="50" t="s">
         <v>3</v>
       </c>
@@ -8914,7 +8764,7 @@
       </c>
     </row>
     <row r="4" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -8990,7 +8840,7 @@
       <c r="Z4" s="15">
         <v>1</v>
       </c>
-      <c r="AA4" s="62"/>
+      <c r="AA4" s="60"/>
       <c r="AB4" s="50" t="s">
         <v>4</v>
       </c>
@@ -9066,7 +8916,7 @@
       <c r="AZ4" s="44">
         <v>1</v>
       </c>
-      <c r="BB4" s="62"/>
+      <c r="BB4" s="60"/>
       <c r="BC4" s="50" t="s">
         <v>4</v>
       </c>
@@ -9144,7 +8994,7 @@
       </c>
     </row>
     <row r="5" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -9220,7 +9070,7 @@
       <c r="Z5" s="15">
         <v>0</v>
       </c>
-      <c r="AA5" s="62"/>
+      <c r="AA5" s="60"/>
       <c r="AB5" s="50" t="s">
         <v>5</v>
       </c>
@@ -9296,7 +9146,7 @@
       <c r="AZ5" s="44">
         <v>0</v>
       </c>
-      <c r="BB5" s="62"/>
+      <c r="BB5" s="60"/>
       <c r="BC5" s="50" t="s">
         <v>5</v>
       </c>
@@ -9374,7 +9224,7 @@
       </c>
     </row>
     <row r="6" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -9450,7 +9300,7 @@
       <c r="Z6" s="15">
         <v>1</v>
       </c>
-      <c r="AA6" s="62"/>
+      <c r="AA6" s="60"/>
       <c r="AB6" s="50" t="s">
         <v>6</v>
       </c>
@@ -9526,7 +9376,7 @@
       <c r="AZ6" s="44">
         <v>0</v>
       </c>
-      <c r="BB6" s="62"/>
+      <c r="BB6" s="60"/>
       <c r="BC6" s="50" t="s">
         <v>6</v>
       </c>
@@ -9604,7 +9454,7 @@
       </c>
     </row>
     <row r="7" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9680,7 +9530,7 @@
       <c r="Z7" s="15">
         <v>0</v>
       </c>
-      <c r="AA7" s="63"/>
+      <c r="AA7" s="61"/>
       <c r="AB7" s="50" t="s">
         <v>8</v>
       </c>
@@ -9756,7 +9606,7 @@
       <c r="AZ7" s="49">
         <v>0</v>
       </c>
-      <c r="BB7" s="63"/>
+      <c r="BB7" s="61"/>
       <c r="BC7" s="50" t="s">
         <v>8</v>
       </c>
@@ -9834,7 +9684,7 @@
       </c>
     </row>
     <row r="8" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="68" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -9912,7 +9762,7 @@
       <c r="Z8" s="15">
         <v>0</v>
       </c>
-      <c r="AA8" s="61" t="s">
+      <c r="AA8" s="59" t="s">
         <v>29</v>
       </c>
       <c r="AB8" s="50" t="s">
@@ -9990,7 +9840,7 @@
       <c r="AZ8" s="42">
         <v>1</v>
       </c>
-      <c r="BB8" s="61" t="s">
+      <c r="BB8" s="59" t="s">
         <v>29</v>
       </c>
       <c r="BC8" s="50" t="s">
@@ -10070,7 +9920,7 @@
       </c>
     </row>
     <row r="9" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -10146,7 +9996,7 @@
       <c r="Z9" s="15">
         <v>0</v>
       </c>
-      <c r="AA9" s="62"/>
+      <c r="AA9" s="60"/>
       <c r="AB9" s="50" t="s">
         <v>9</v>
       </c>
@@ -10222,7 +10072,7 @@
       <c r="AZ9" s="44">
         <v>1</v>
       </c>
-      <c r="BB9" s="62"/>
+      <c r="BB9" s="60"/>
       <c r="BC9" s="50" t="s">
         <v>9</v>
       </c>
@@ -10300,7 +10150,7 @@
       </c>
     </row>
     <row r="10" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -10376,7 +10226,7 @@
       <c r="Z10" s="15">
         <v>0</v>
       </c>
-      <c r="AA10" s="62"/>
+      <c r="AA10" s="60"/>
       <c r="AB10" s="50" t="s">
         <v>10</v>
       </c>
@@ -10452,7 +10302,7 @@
       <c r="AZ10" s="44">
         <v>1</v>
       </c>
-      <c r="BB10" s="62"/>
+      <c r="BB10" s="60"/>
       <c r="BC10" s="50" t="s">
         <v>10</v>
       </c>
@@ -10530,7 +10380,7 @@
       </c>
     </row>
     <row r="11" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -10606,7 +10456,7 @@
       <c r="Z11" s="15">
         <v>0</v>
       </c>
-      <c r="AA11" s="63"/>
+      <c r="AA11" s="61"/>
       <c r="AB11" s="50" t="s">
         <v>11</v>
       </c>
@@ -10682,7 +10532,7 @@
       <c r="AZ11" s="49">
         <v>1</v>
       </c>
-      <c r="BB11" s="63"/>
+      <c r="BB11" s="61"/>
       <c r="BC11" s="50" t="s">
         <v>11</v>
       </c>
@@ -10760,7 +10610,7 @@
       </c>
     </row>
     <row r="12" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10838,7 +10688,7 @@
       <c r="Z12" s="15">
         <v>1</v>
       </c>
-      <c r="AA12" s="61" t="s">
+      <c r="AA12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="AB12" s="50" t="s">
@@ -10916,7 +10766,7 @@
       <c r="AZ12" s="42">
         <v>1</v>
       </c>
-      <c r="BB12" s="61" t="s">
+      <c r="BB12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="BC12" s="50" t="s">
@@ -10996,7 +10846,7 @@
       </c>
     </row>
     <row r="13" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
@@ -11072,7 +10922,7 @@
       <c r="Z13" s="15">
         <v>1</v>
       </c>
-      <c r="AA13" s="62"/>
+      <c r="AA13" s="60"/>
       <c r="AB13" s="50" t="s">
         <v>15</v>
       </c>
@@ -11148,7 +10998,7 @@
       <c r="AZ13" s="44">
         <v>1</v>
       </c>
-      <c r="BB13" s="62"/>
+      <c r="BB13" s="60"/>
       <c r="BC13" s="50" t="s">
         <v>15</v>
       </c>
@@ -11226,7 +11076,7 @@
       </c>
     </row>
     <row r="14" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -11302,7 +11152,7 @@
       <c r="Z14" s="15">
         <v>0</v>
       </c>
-      <c r="AA14" s="62"/>
+      <c r="AA14" s="60"/>
       <c r="AB14" s="50" t="s">
         <v>16</v>
       </c>
@@ -11378,7 +11228,7 @@
       <c r="AZ14" s="44">
         <v>0</v>
       </c>
-      <c r="BB14" s="62"/>
+      <c r="BB14" s="60"/>
       <c r="BC14" s="50" t="s">
         <v>16</v>
       </c>
@@ -11456,7 +11306,7 @@
       </c>
     </row>
     <row r="15" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
@@ -11532,7 +11382,7 @@
       <c r="Z15" s="15">
         <v>0</v>
       </c>
-      <c r="AA15" s="62"/>
+      <c r="AA15" s="60"/>
       <c r="AB15" s="50" t="s">
         <v>17</v>
       </c>
@@ -11608,7 +11458,7 @@
       <c r="AZ15" s="44">
         <v>0</v>
       </c>
-      <c r="BB15" s="62"/>
+      <c r="BB15" s="60"/>
       <c r="BC15" s="50" t="s">
         <v>17</v>
       </c>
@@ -11686,7 +11536,7 @@
       </c>
     </row>
     <row r="16" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
@@ -11762,7 +11612,7 @@
       <c r="Z16" s="15">
         <v>0</v>
       </c>
-      <c r="AA16" s="62"/>
+      <c r="AA16" s="60"/>
       <c r="AB16" s="50" t="s">
         <v>18</v>
       </c>
@@ -11838,7 +11688,7 @@
       <c r="AZ16" s="44">
         <v>0</v>
       </c>
-      <c r="BB16" s="62"/>
+      <c r="BB16" s="60"/>
       <c r="BC16" s="50" t="s">
         <v>18</v>
       </c>
@@ -11916,7 +11766,7 @@
       </c>
     </row>
     <row r="17" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -11992,7 +11842,7 @@
       <c r="Z17" s="15">
         <v>1</v>
       </c>
-      <c r="AA17" s="62"/>
+      <c r="AA17" s="60"/>
       <c r="AB17" s="50" t="s">
         <v>19</v>
       </c>
@@ -12068,7 +11918,7 @@
       <c r="AZ17" s="44">
         <v>1</v>
       </c>
-      <c r="BB17" s="62"/>
+      <c r="BB17" s="60"/>
       <c r="BC17" s="50" t="s">
         <v>19</v>
       </c>
@@ -12146,7 +11996,7 @@
       </c>
     </row>
     <row r="18" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
@@ -12222,7 +12072,7 @@
       <c r="Z18" s="15">
         <v>0</v>
       </c>
-      <c r="AA18" s="63"/>
+      <c r="AA18" s="61"/>
       <c r="AB18" s="50" t="s">
         <v>20</v>
       </c>
@@ -12298,7 +12148,7 @@
       <c r="AZ18" s="49">
         <v>0</v>
       </c>
-      <c r="BB18" s="63"/>
+      <c r="BB18" s="61"/>
       <c r="BC18" s="50" t="s">
         <v>20</v>
       </c>
@@ -12376,7 +12226,7 @@
       </c>
     </row>
     <row r="19" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
@@ -12452,7 +12302,7 @@
       <c r="Z19" s="15">
         <v>1</v>
       </c>
-      <c r="AA19" s="61" t="s">
+      <c r="AA19" s="59" t="s">
         <v>32</v>
       </c>
       <c r="AB19" s="50" t="s">
@@ -12530,7 +12380,7 @@
       <c r="AZ19" s="42">
         <v>0</v>
       </c>
-      <c r="BB19" s="65" t="s">
+      <c r="BB19" s="62" t="s">
         <v>32</v>
       </c>
       <c r="BC19" s="23" t="s">
@@ -12610,7 +12460,7 @@
       </c>
     </row>
     <row r="20" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
@@ -12686,7 +12536,7 @@
       <c r="Z20" s="15">
         <v>0</v>
       </c>
-      <c r="AA20" s="62"/>
+      <c r="AA20" s="60"/>
       <c r="AB20" s="50" t="s">
         <v>13</v>
       </c>
@@ -12762,7 +12612,7 @@
       <c r="AZ20" s="44">
         <v>1</v>
       </c>
-      <c r="BB20" s="66"/>
+      <c r="BB20" s="63"/>
       <c r="BC20" s="24" t="s">
         <v>12</v>
       </c>
@@ -12840,7 +12690,7 @@
       </c>
     </row>
     <row r="21" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
@@ -12916,7 +12766,7 @@
       <c r="Z21" s="15">
         <v>0</v>
       </c>
-      <c r="AA21" s="62"/>
+      <c r="AA21" s="60"/>
       <c r="AB21" s="50" t="s">
         <v>12</v>
       </c>
@@ -12992,7 +12842,7 @@
       <c r="AZ21" s="44">
         <v>1</v>
       </c>
-      <c r="BB21" s="66"/>
+      <c r="BB21" s="63"/>
       <c r="BC21" s="24" t="s">
         <v>13</v>
       </c>
@@ -13070,7 +12920,7 @@
       </c>
     </row>
     <row r="22" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
@@ -13146,7 +12996,7 @@
       <c r="Z22" s="15">
         <v>0</v>
       </c>
-      <c r="AA22" s="62"/>
+      <c r="AA22" s="60"/>
       <c r="AB22" s="50" t="s">
         <v>21</v>
       </c>
@@ -13222,7 +13072,7 @@
       <c r="AZ22" s="44">
         <v>0</v>
       </c>
-      <c r="BB22" s="66"/>
+      <c r="BB22" s="63"/>
       <c r="BC22" s="53" t="s">
         <v>21</v>
       </c>
@@ -13300,7 +13150,7 @@
       </c>
     </row>
     <row r="23" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
@@ -13376,7 +13226,7 @@
       <c r="Z23" s="15">
         <v>1</v>
       </c>
-      <c r="AA23" s="62"/>
+      <c r="AA23" s="60"/>
       <c r="AB23" s="50" t="s">
         <v>22</v>
       </c>
@@ -13452,7 +13302,7 @@
       <c r="AZ23" s="44">
         <v>1</v>
       </c>
-      <c r="BB23" s="66"/>
+      <c r="BB23" s="63"/>
       <c r="BC23" s="22" t="s">
         <v>22</v>
       </c>
@@ -13530,7 +13380,7 @@
       </c>
     </row>
     <row r="24" spans="1:79" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
@@ -13606,7 +13456,7 @@
       <c r="Z24" s="15">
         <v>0</v>
       </c>
-      <c r="AA24" s="63"/>
+      <c r="AA24" s="61"/>
       <c r="AB24" s="50" t="s">
         <v>23</v>
       </c>
@@ -13682,7 +13532,7 @@
       <c r="AZ24" s="49">
         <v>0</v>
       </c>
-      <c r="BB24" s="67"/>
+      <c r="BB24" s="64"/>
       <c r="BC24" s="52" t="s">
         <v>23</v>
       </c>
@@ -13760,7 +13610,7 @@
       </c>
     </row>
     <row r="25" spans="1:79" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="67" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -13838,7 +13688,7 @@
       <c r="Z25" s="15">
         <v>0</v>
       </c>
-      <c r="AA25" s="61" t="s">
+      <c r="AA25" s="59" t="s">
         <v>31</v>
       </c>
       <c r="AB25" s="50" t="s">
@@ -13916,7 +13766,7 @@
       <c r="AZ25" s="37">
         <v>0</v>
       </c>
-      <c r="BB25" s="65" t="s">
+      <c r="BB25" s="62" t="s">
         <v>31</v>
       </c>
       <c r="BC25" s="51" t="s">
@@ -13996,7 +13846,7 @@
       </c>
     </row>
     <row r="26" spans="1:79" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
@@ -14072,7 +13922,7 @@
       <c r="Z26" s="18">
         <v>1</v>
       </c>
-      <c r="AA26" s="63"/>
+      <c r="AA26" s="61"/>
       <c r="AB26" s="50" t="s">
         <v>27</v>
       </c>
@@ -14148,7 +13998,7 @@
       <c r="AZ26" s="49">
         <v>1</v>
       </c>
-      <c r="BB26" s="67"/>
+      <c r="BB26" s="64"/>
       <c r="BC26" s="51" t="s">
         <v>27</v>
       </c>
@@ -14226,33 +14076,40 @@
       </c>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
+      <c r="A27" s="67"/>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="67"/>
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="67"/>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
+      <c r="A30" s="67"/>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
+      <c r="A31" s="67"/>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
+      <c r="A32" s="67"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
+      <c r="A33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BB12:BB18"/>
-    <mergeCell ref="BB19:BB24"/>
-    <mergeCell ref="BB25:BB26"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="AA12:AA18"/>
+    <mergeCell ref="AA19:AA24"/>
+    <mergeCell ref="AA25:AA26"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AA2:AA7"/>
     <mergeCell ref="BP1:BU1"/>
     <mergeCell ref="BV1:CA1"/>
     <mergeCell ref="BB2:BB7"/>
@@ -14260,129 +14117,122 @@
     <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="AU1:AZ1"/>
     <mergeCell ref="BB8:BB11"/>
-    <mergeCell ref="AA12:AA18"/>
-    <mergeCell ref="AA19:AA24"/>
-    <mergeCell ref="AA25:AA26"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AA2:AA7"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="BB12:BB18"/>
+    <mergeCell ref="BB19:BB24"/>
+    <mergeCell ref="BB25:BB26"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:Z26">
-    <cfRule type="cellIs" dxfId="218" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU2:AZ26">
-    <cfRule type="cellIs" dxfId="216" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AH26">
-    <cfRule type="cellIs" dxfId="214" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AN26">
-    <cfRule type="cellIs" dxfId="212" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO2:AT26">
-    <cfRule type="cellIs" dxfId="210" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AZ26">
-    <cfRule type="cellIs" dxfId="208" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV2:CA26">
-    <cfRule type="cellIs" dxfId="206" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:BI26">
-    <cfRule type="cellIs" dxfId="204" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ2:BO26">
-    <cfRule type="cellIs" dxfId="202" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP2:BU26">
-    <cfRule type="cellIs" dxfId="200" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD2:CA26">
-    <cfRule type="cellIs" dxfId="198" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD24:CA24">
-    <cfRule type="cellIs" dxfId="196" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD23:CA23">
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD22:CA22">
-    <cfRule type="cellIs" dxfId="194" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD20:CA21">
-    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD19:CA19">
-    <cfRule type="cellIs" dxfId="192" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14404,7 +14254,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="50" t="s">
@@ -14484,7 +14334,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
@@ -14562,7 +14412,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
@@ -14640,7 +14490,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
@@ -14718,7 +14568,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="50" t="s">
         <v>6</v>
       </c>
@@ -14796,7 +14646,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="50" t="s">
         <v>8</v>
       </c>
@@ -14874,7 +14724,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="50" t="s">
@@ -14954,7 +14804,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
@@ -15032,7 +14882,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
@@ -15110,7 +14960,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="50" t="s">
         <v>11</v>
       </c>
@@ -15188,7 +15038,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="50" t="s">
@@ -15268,7 +15118,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="50" t="s">
         <v>15</v>
       </c>
@@ -15346,7 +15196,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="50" t="s">
         <v>16</v>
       </c>
@@ -15424,7 +15274,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="50" t="s">
         <v>17</v>
       </c>
@@ -15502,7 +15352,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="50" t="s">
         <v>18</v>
       </c>
@@ -15580,7 +15430,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="50" t="s">
         <v>19</v>
       </c>
@@ -15658,7 +15508,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="50" t="s">
         <v>20</v>
       </c>
@@ -15736,7 +15586,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -15816,7 +15666,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="50" t="s">
         <v>13</v>
       </c>
@@ -15894,7 +15744,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="50" t="s">
         <v>12</v>
       </c>
@@ -15972,7 +15822,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
+      <c r="A21" s="60"/>
       <c r="B21" s="50" t="s">
         <v>21</v>
       </c>
@@ -16050,7 +15900,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="50" t="s">
         <v>22</v>
       </c>
@@ -16128,7 +15978,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="50" t="s">
         <v>23</v>
       </c>
@@ -16206,7 +16056,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="50" t="s">
@@ -16286,7 +16136,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="50" t="s">
         <v>27</v>
       </c>
@@ -16372,42 +16222,42 @@
     <mergeCell ref="A24:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:Z25">
-    <cfRule type="cellIs" dxfId="191" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:H25">
-    <cfRule type="cellIs" dxfId="189" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:N25">
-    <cfRule type="cellIs" dxfId="187" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:T25">
-    <cfRule type="cellIs" dxfId="185" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:Z25">
-    <cfRule type="cellIs" dxfId="183" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19439,7 +19289,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -19495,7 +19345,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
@@ -19549,7 +19399,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
@@ -19603,7 +19453,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
@@ -19657,7 +19507,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="68"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="2" t="s">
         <v>20</v>
       </c>
@@ -19711,7 +19561,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -19767,7 +19617,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="2" t="s">
         <v>12</v>
       </c>
@@ -19821,7 +19671,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
@@ -19875,7 +19725,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -19931,7 +19781,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="2" t="s">
         <v>22</v>
       </c>
@@ -19985,7 +19835,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -20694,7 +20544,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -20750,7 +20600,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="68"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
@@ -20804,7 +20654,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
@@ -20858,7 +20708,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="68"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -20912,7 +20762,7 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="68"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
@@ -20966,7 +20816,7 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -21022,7 +20872,7 @@
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="68"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
@@ -21076,7 +20926,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="68"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="2" t="s">
         <v>13</v>
       </c>
@@ -21130,7 +20980,7 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -21186,7 +21036,7 @@
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="68"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
@@ -21240,7 +21090,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="68"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="2" t="s">
         <v>23</v>
       </c>
@@ -21405,392 +21255,392 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A63"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A63"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:R24">
-    <cfRule type="cellIs" dxfId="181" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="127" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="128" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C50">
-    <cfRule type="cellIs" dxfId="179" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K50">
-    <cfRule type="cellIs" dxfId="177" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F50">
-    <cfRule type="cellIs" dxfId="175" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="121" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P50">
-    <cfRule type="cellIs" dxfId="173" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="63" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="64" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D50">
-    <cfRule type="cellIs" dxfId="171" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="117" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="118" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M50">
-    <cfRule type="cellIs" dxfId="169" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E50">
-    <cfRule type="cellIs" dxfId="167" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="111" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="112" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D50">
-    <cfRule type="cellIs" dxfId="165" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="109" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E50">
-    <cfRule type="cellIs" dxfId="163" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C50">
-    <cfRule type="cellIs" dxfId="161" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="105" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F50">
-    <cfRule type="cellIs" dxfId="159" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G50">
-    <cfRule type="cellIs" dxfId="157" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J50">
-    <cfRule type="cellIs" dxfId="155" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:H50">
-    <cfRule type="cellIs" dxfId="153" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="87" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="88" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I50">
-    <cfRule type="cellIs" dxfId="151" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P50">
-    <cfRule type="cellIs" dxfId="149" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="72" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O50">
-    <cfRule type="cellIs" dxfId="147" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q50">
-    <cfRule type="cellIs" dxfId="145" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28:Q50">
-    <cfRule type="cellIs" dxfId="143" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="69" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R50">
-    <cfRule type="cellIs" dxfId="141" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="68" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:R50">
-    <cfRule type="cellIs" dxfId="139" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:L50">
-    <cfRule type="cellIs" dxfId="137" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N50">
-    <cfRule type="cellIs" dxfId="135" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C76">
-    <cfRule type="cellIs" dxfId="133" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F76">
-    <cfRule type="cellIs" dxfId="131" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D76">
-    <cfRule type="cellIs" dxfId="129" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E76">
-    <cfRule type="cellIs" dxfId="127" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D76">
-    <cfRule type="cellIs" dxfId="125" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E76">
-    <cfRule type="cellIs" dxfId="123" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C76">
-    <cfRule type="cellIs" dxfId="121" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F76">
-    <cfRule type="cellIs" dxfId="119" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54:G76">
-    <cfRule type="cellIs" dxfId="117" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I76">
-    <cfRule type="cellIs" dxfId="115" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:H76">
-    <cfRule type="cellIs" dxfId="113" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:J76">
-    <cfRule type="cellIs" dxfId="111" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K76">
-    <cfRule type="cellIs" dxfId="109" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54:N76">
-    <cfRule type="cellIs" dxfId="107" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L76">
-    <cfRule type="cellIs" dxfId="105" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M76">
-    <cfRule type="cellIs" dxfId="103" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54:P76">
-    <cfRule type="cellIs" dxfId="101" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54:P76">
-    <cfRule type="cellIs" dxfId="99" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O76">
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q76">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q76">
-    <cfRule type="cellIs" dxfId="93" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R54:R76">
-    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R54:R76">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21802,8 +21652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0ABD9E3-9DC9-B54D-ADB2-2D19ED5D7DBD}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23207,16 +23057,16 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="72">
-        <v>0</v>
-      </c>
-      <c r="L24" s="72">
-        <v>0</v>
-      </c>
-      <c r="M24" s="72">
-        <v>0</v>
-      </c>
-      <c r="N24" s="72">
+      <c r="K24" s="58">
+        <v>0</v>
+      </c>
+      <c r="L24" s="58">
+        <v>0</v>
+      </c>
+      <c r="M24" s="58">
+        <v>0</v>
+      </c>
+      <c r="N24" s="58">
         <v>0</v>
       </c>
       <c r="O24" s="1">
@@ -23233,8 +23083,8 @@
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="70"/>
@@ -23529,7 +23379,7 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="72" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -23589,7 +23439,7 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
@@ -23647,7 +23497,7 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
@@ -23705,7 +23555,7 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
@@ -23763,7 +23613,7 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="68"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
@@ -23821,7 +23671,7 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="72" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -23881,7 +23731,7 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="68"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
@@ -23939,7 +23789,7 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
@@ -23997,7 +23847,7 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="72" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -24057,7 +23907,7 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="68"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
@@ -24115,7 +23965,7 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="68"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
@@ -24292,230 +24142,1417 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <conditionalFormatting sqref="D20:D42">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D42">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C42">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E42">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F42">
-    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F42">
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G42">
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H42">
-    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H42">
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I42">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J42">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J42">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:X42">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20:X42">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y20:Y42">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K42">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L42">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L42">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M42">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N42">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N42">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:V42">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:V42">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20:W42">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O42">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P42">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:P42">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20:Q42">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:R42">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:R42">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9BA79B-4A1F-E04F-851E-2BA1072E5083}">
+  <dimension ref="B1:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A13:A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C13:C32 E13:E32 G13:G32 I13:I32">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24523,7 +25560,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R42">
+  <conditionalFormatting sqref="D13:D32 F13:F32 H13:H32 J13:J32">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -24531,7 +25568,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R42">
+  <conditionalFormatting sqref="D13:D32 F13:F32 H13:H32 J13:J32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
